--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.010920-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.010920-2.xlsx_with_dialog_acts.xlsx
@@ -639,12 +639,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1651,12 +1651,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1777,12 +1777,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1819,12 +1819,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2575,12 +2575,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2659,12 +2659,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2953,12 +2953,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -3331,12 +3331,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3667,12 +3667,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3835,12 +3835,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4171,12 +4171,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4297,12 +4297,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4381,12 +4381,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4717,12 +4717,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5057,12 +5057,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5561,12 +5561,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5943,12 +5943,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6287,12 +6287,12 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6539,12 +6539,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6711,12 +6711,12 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7471,12 +7471,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8059,12 +8059,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8227,12 +8227,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8353,12 +8353,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8479,12 +8479,12 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9109,12 +9109,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9991,12 +9991,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10541,12 +10541,12 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10835,12 +10835,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11171,12 +11171,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11591,12 +11591,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11717,12 +11717,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11759,12 +11759,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12137,12 +12137,12 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12557,12 +12557,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12683,12 +12683,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13103,12 +13103,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13439,12 +13439,12 @@
       <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13565,12 +13565,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14203,12 +14203,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14975,12 +14975,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15655,12 +15655,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16117,12 +16117,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16201,12 +16201,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16705,12 +16705,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16747,12 +16747,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16877,12 +16877,12 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17129,12 +17129,12 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17465,12 +17465,12 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17717,12 +17717,12 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18095,12 +18095,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18305,12 +18305,12 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18431,12 +18431,12 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18473,12 +18473,12 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18687,12 +18687,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20287,12 +20287,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20371,12 +20371,12 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20921,12 +20921,12 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20967,12 +20967,12 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21181,12 +21181,12 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21521,12 +21521,12 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22449,12 +22449,12 @@
       <c r="H522" t="inlineStr"/>
       <c r="I522" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22999,12 +22999,12 @@
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23335,12 +23335,12 @@
       <c r="H543" t="inlineStr"/>
       <c r="I543" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24091,12 +24091,12 @@
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24217,12 +24217,12 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
